--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2104499.732199423</v>
+        <v>2100196.084928041</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.93385014149905</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="E2" t="n">
         <v>239.8079481415051</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.93385014149905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>80.54187128585292</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.47831349161964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>171.8260954208813</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>121.5976716476359</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>290.290511414345</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430065</v>
+        <v>287.9615379738181</v>
       </c>
       <c r="H5" t="n">
-        <v>290.290511414345</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401377</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>124.3087480976051</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>290.290511414345</v>
+        <v>290.2905114143446</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>290.2905114143446</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>29.94247971686213</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370922</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790373</v>
+        <v>15.09724236790377</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>168.362920242189</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>152.0153623856348</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>67.50284585056397</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441978</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.8063240612128</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>30.94005184045412</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>163.5820951301549</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>110.3044224953903</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>105.0006820737981</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>80.56978887874858</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6324680438217263</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>189.2380031216297</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18.16423677622371</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>222.1774156618439</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>207.2149898168489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>33.66638448559959</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>19.17715139986178</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>104.1233804225859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>33.01627976944107</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>87.27508091634219</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>98.72106119200248</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>119.4946167489004</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.26558381700011</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>281.6778446725259</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401.1007355715666</v>
+        <v>885.5612368675366</v>
       </c>
       <c r="C2" t="n">
-        <v>401.1007355715666</v>
+        <v>643.3309862195516</v>
       </c>
       <c r="D2" t="n">
         <v>401.1007355715666</v>
@@ -4336,7 +4336,7 @@
         <v>122.9820404192966</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605498</v>
+        <v>262.3106962605499</v>
       </c>
       <c r="M2" t="n">
         <v>449.0101090859574</v>
@@ -4363,19 +4363,19 @@
         <v>959.2317925660205</v>
       </c>
       <c r="U2" t="n">
-        <v>717.0015419180355</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="V2" t="n">
-        <v>717.0015419180355</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="W2" t="n">
-        <v>474.7712912700505</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="X2" t="n">
-        <v>474.7712912700505</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.1007355715666</v>
+        <v>959.2317925660205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>294.5536429876428</v>
+        <v>583.1649553404197</v>
       </c>
       <c r="C3" t="n">
-        <v>120.1006137065158</v>
+        <v>408.7119260592928</v>
       </c>
       <c r="D3" t="n">
-        <v>120.1006137065158</v>
+        <v>259.7775163980415</v>
       </c>
       <c r="E3" t="n">
-        <v>120.1006137065158</v>
+        <v>100.540061392586</v>
       </c>
       <c r="F3" t="n">
-        <v>120.1006137065158</v>
+        <v>100.540061392586</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1006137065158</v>
+        <v>100.540061392586</v>
       </c>
       <c r="H3" t="n">
         <v>19.18463585132041</v>
@@ -4436,25 +4436,25 @@
         <v>959.2317925660205</v>
       </c>
       <c r="S3" t="n">
-        <v>809.7650034286553</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T3" t="n">
-        <v>809.7650034286553</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="U3" t="n">
-        <v>809.7650034286553</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="V3" t="n">
-        <v>809.7650034286553</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="W3" t="n">
-        <v>567.5347527806703</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="X3" t="n">
-        <v>359.6832525751374</v>
+        <v>751.3802923604877</v>
       </c>
       <c r="Y3" t="n">
-        <v>294.5536429876428</v>
+        <v>751.3802923604877</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.9723171930762</v>
+        <v>654.7573967785728</v>
       </c>
       <c r="C4" t="n">
-        <v>184.9723171930762</v>
+        <v>485.8212138506659</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9723171930762</v>
+        <v>335.7045744383302</v>
       </c>
       <c r="E4" t="n">
-        <v>37.05922361068303</v>
+        <v>187.791480855937</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J4" t="n">
         <v>19.18463585132041</v>
@@ -4512,28 +4512,28 @@
         <v>959.2317925660205</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854233</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S4" t="n">
-        <v>828.7538312854233</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T4" t="n">
-        <v>828.7538312854233</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="U4" t="n">
-        <v>655.1921187390785</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="V4" t="n">
-        <v>412.9618680910935</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="W4" t="n">
-        <v>412.9618680910935</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="X4" t="n">
-        <v>184.9723171930762</v>
+        <v>836.4058616088125</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.9723171930762</v>
+        <v>836.4058616088125</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>742.3749148372283</v>
+        <v>321.038982039945</v>
       </c>
       <c r="C5" t="n">
-        <v>742.3749148372283</v>
+        <v>321.038982039945</v>
       </c>
       <c r="D5" t="n">
-        <v>742.3749148372283</v>
+        <v>321.038982039945</v>
       </c>
       <c r="E5" t="n">
-        <v>449.1521760348596</v>
+        <v>321.038982039945</v>
       </c>
       <c r="F5" t="n">
-        <v>442.2066752856561</v>
+        <v>314.0934812907416</v>
       </c>
       <c r="G5" t="n">
-        <v>429.3357630893928</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="H5" t="n">
-        <v>136.1130242870241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="I5" t="n">
-        <v>23.2232409131476</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951913</v>
+        <v>59.13673382951902</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444942</v>
+        <v>163.7002683444944</v>
       </c>
       <c r="L5" t="n">
         <v>330.3223409084615</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162828</v>
+        <v>547.3909387162823</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417536999</v>
+        <v>772.585741753699</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416853</v>
+        <v>971.8955472416844</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171406</v>
+        <v>1107.500854171405</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.16204565738</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.16204565738</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="S5" t="n">
-        <v>1035.597653639597</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="T5" t="n">
-        <v>1035.597653639597</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="U5" t="n">
-        <v>1035.597653639597</v>
+        <v>907.4844596446817</v>
       </c>
       <c r="V5" t="n">
-        <v>1035.597653639597</v>
+        <v>907.4844596446817</v>
       </c>
       <c r="W5" t="n">
-        <v>742.3749148372283</v>
+        <v>614.2617208423134</v>
       </c>
       <c r="X5" t="n">
-        <v>742.3749148372283</v>
+        <v>321.038982039945</v>
       </c>
       <c r="Y5" t="n">
-        <v>742.3749148372283</v>
+        <v>321.038982039945</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371.64933704698</v>
+        <v>682.6276218410278</v>
       </c>
       <c r="C6" t="n">
-        <v>371.64933704698</v>
+        <v>508.1745925599008</v>
       </c>
       <c r="D6" t="n">
-        <v>371.64933704698</v>
+        <v>359.2401828986496</v>
       </c>
       <c r="E6" t="n">
-        <v>212.4118820415245</v>
+        <v>200.002727893194</v>
       </c>
       <c r="F6" t="n">
-        <v>65.87732406840945</v>
+        <v>53.46816992007902</v>
       </c>
       <c r="G6" t="n">
-        <v>65.87732406840945</v>
+        <v>53.46816992007902</v>
       </c>
       <c r="H6" t="n">
-        <v>65.87732406840945</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="I6" t="n">
-        <v>23.2232409131476</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508882</v>
+        <v>150.6253492920935</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7315125838822</v>
+        <v>233.1761032933329</v>
       </c>
       <c r="L6" t="n">
-        <v>393.0537298894931</v>
+        <v>390.4983205989436</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478047</v>
+        <v>593.4427959572549</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044646</v>
+        <v>816.1672526139146</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792095</v>
+        <v>997.6968225015443</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.61264931322</v>
+        <v>1124.05724002267</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.16204565738</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891821</v>
+        <v>1145.912305891819</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891821</v>
+        <v>1145.912305891819</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891821</v>
+        <v>1145.912305891819</v>
       </c>
       <c r="U6" t="n">
-        <v>917.7797300727718</v>
+        <v>917.7797300727705</v>
       </c>
       <c r="V6" t="n">
-        <v>917.7797300727718</v>
+        <v>682.6276218410278</v>
       </c>
       <c r="W6" t="n">
-        <v>747.7161742725809</v>
+        <v>682.6276218410278</v>
       </c>
       <c r="X6" t="n">
-        <v>539.8646740670481</v>
+        <v>682.6276218410278</v>
       </c>
       <c r="Y6" t="n">
-        <v>539.8646740670481</v>
+        <v>682.6276218410278</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.7741120097484</v>
+        <v>873.7914857563309</v>
       </c>
       <c r="C7" t="n">
-        <v>176.7741120097484</v>
+        <v>704.855302828424</v>
       </c>
       <c r="D7" t="n">
-        <v>176.7741120097484</v>
+        <v>554.7386634160882</v>
       </c>
       <c r="E7" t="n">
-        <v>176.7741120097484</v>
+        <v>406.8255698336951</v>
       </c>
       <c r="F7" t="n">
-        <v>176.7741120097484</v>
+        <v>259.9356223357847</v>
       </c>
       <c r="G7" t="n">
-        <v>176.7741120097484</v>
+        <v>91.40793369149503</v>
       </c>
       <c r="H7" t="n">
-        <v>23.2232409131476</v>
+        <v>91.40793369149503</v>
       </c>
       <c r="I7" t="n">
-        <v>23.2232409131476</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="J7" t="n">
-        <v>23.2232409131476</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279143</v>
+        <v>133.2846894279142</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993033</v>
+        <v>329.6518852993031</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276979</v>
+        <v>547.0826837276977</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730486</v>
+        <v>764.7780801730482</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967845</v>
+        <v>949.8387182967841</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195906</v>
+        <v>1084.669382195905</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="R7" t="n">
-        <v>967.665261420874</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="S7" t="n">
-        <v>761.6044561527954</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="T7" t="n">
-        <v>536.3134730047391</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="U7" t="n">
-        <v>536.3134730047391</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="V7" t="n">
-        <v>281.6289847988522</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="W7" t="n">
-        <v>281.6289847988522</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="X7" t="n">
-        <v>281.6289847988522</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.7741120097484</v>
+        <v>873.7914857563309</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102551</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345439</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2322.341109389359</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1991.278222045788</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="W8" t="n">
-        <v>1638.509566775674</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.509566775674</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057894</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L9" t="n">
-        <v>932.497810310101</v>
+        <v>801.9449557744481</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269322</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866269</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042432</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568935</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1977.081882811833</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>1808.145699883926</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>1658.029060471591</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>1546.610451890389</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>1399.720504392478</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>1231.734039700757</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>1082.995141564263</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>977.1399948936564</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>1002.609167878776</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>1174.299679627702</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>1449.530858294978</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>1750.112669035314</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>2048.981932571479</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>2309.019775324691</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>2205.071433709851</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>2205.071433709851</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1977.081882811833</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>1977.081882811833</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,43 +5047,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473698</v>
+        <v>1097.964082041489</v>
       </c>
       <c r="C13" t="n">
-        <v>746.1673476194629</v>
+        <v>929.0278991135822</v>
       </c>
       <c r="D13" t="n">
-        <v>596.0507082071272</v>
+        <v>778.9112597012464</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>630.9981661188533</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.1082186209429</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>316.9121193358229</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.200288178021</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1279.612546871729</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.3929232910542</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>782.4567403631473</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>632.3401009508116</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199802</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162841</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264824</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.041388121294</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1786.311582407852</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,19 +6074,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2776.405149934352</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>2776.405149934352</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>2626.288510522017</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>3178.846193908122</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>2958.053614764592</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6445,58 +6445,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5579673960132</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681063</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U31" t="n">
-        <v>1958.090220510648</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V31" t="n">
-        <v>1703.405732304761</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.9885622678</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.999011369783</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.2064322262529</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>422.7903292978459</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>422.7903292978459</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>209.2531439449482</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8178837532264</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.350136867861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.665648661974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.248478625014</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.258927726996</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.4663485834661</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3333.446064938863</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C43" t="n">
-        <v>3164.509882010957</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D43" t="n">
-        <v>3014.393242598621</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E43" t="n">
-        <v>2866.480149016228</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>2719.590201518317</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>2552.394102233197</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2410.682271075395</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4507.978318053498</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4507.978318053498</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>4253.293829847611</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3963.87665981065</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3735.887108912633</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>3515.094529769103</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.7423662450683</v>
+        <v>54.74236624506838</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>128.6722568460141</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.581221505605285</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241567</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621874</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.0073097921266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.43328057277108</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.6960474398169367</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.8014946027475</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>96.94647126761447</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>127.2568112467075</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3.532239727193229</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.4946655721883</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.359901516045</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.0073229893824</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>198.909393472902</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.52575990662535</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>60.33736343303694</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.000252501565427</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4.506629716718237</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>865650.5484132784</v>
+        <v>865650.5484132787</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752545</v>
@@ -26368,13 +26368,13 @@
         <v>652246.4444800895</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210758</v>
+        <v>55881.3234221071</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276276</v>
+        <v>363279.886627626</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353599</v>
+        <v>62744.31078353597</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440425</v>
+        <v>12992.59634440414</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666295</v>
+        <v>88656.33991666313</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,10 +26420,10 @@
         <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431042</v>
+        <v>246054.6603431043</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26444,10 +26444,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26472,10 +26472,10 @@
         <v>61145.70223437333</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302691</v>
+        <v>65162.40123302688</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-379199.6710688837</v>
       </c>
       <c r="C6" t="n">
-        <v>228156.8981533665</v>
+        <v>228156.8981533669</v>
       </c>
       <c r="D6" t="n">
-        <v>-4913.46989868625</v>
+        <v>-4913.469898684518</v>
       </c>
       <c r="E6" t="n">
-        <v>-36423.55082002675</v>
+        <v>-36770.93007438591</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.51155016</v>
       </c>
       <c r="G6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501598</v>
       </c>
       <c r="H6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501602</v>
       </c>
       <c r="I6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501601</v>
       </c>
       <c r="J6" t="n">
-        <v>408317.580020981</v>
+        <v>407970.2007666241</v>
       </c>
       <c r="K6" t="n">
-        <v>458069.2944601129</v>
+        <v>457721.9152057556</v>
       </c>
       <c r="L6" t="n">
-        <v>382405.5508878539</v>
+        <v>382058.1716334968</v>
       </c>
       <c r="M6" t="n">
-        <v>338454.5970755899</v>
+        <v>338107.217821233</v>
       </c>
       <c r="N6" t="n">
-        <v>471061.890804517</v>
+        <v>470714.5115501598</v>
       </c>
       <c r="O6" t="n">
-        <v>471061.890804517</v>
+        <v>470714.5115501598</v>
       </c>
       <c r="P6" t="n">
-        <v>471061.890804517</v>
+        <v>470714.5115501601</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575567</v>
+        <v>636.9329421575563</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>290.290511414345</v>
+        <v>290.2905114143446</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949173</v>
+        <v>43.45684181949134</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599849</v>
+        <v>297.1319499599829</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283985</v>
+        <v>50.48256327283946</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856938</v>
+        <v>350.2943206856943</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996096</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415052</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283985</v>
+        <v>50.48256327283934</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856939</v>
+        <v>350.2943206856946</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,10 +27260,10 @@
         <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283985</v>
+        <v>50.48256327283946</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856938</v>
+        <v>350.2943206856943</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7999915219815</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295024</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.8750934791778</v>
       </c>
       <c r="E2" t="n">
         <v>142.1224219307566</v>
@@ -27435,19 +27435,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079549</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>109.4330205759079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>313.3040885145546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>19.36494679079053</v>
       </c>
       <c r="I3" t="n">
         <v>45.44580843958668</v>
@@ -27508,7 +27508,7 @@
         <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941447</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>141.2043822856847</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27560,7 +27560,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001186</v>
@@ -27593,16 +27593,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4345592372157</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232287</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>104.1119837414012</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>91.63985865791682</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>124.7806651004826</v>
       </c>
       <c r="H5" t="n">
-        <v>22.96121735922691</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401378</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>26.3631429181264</v>
+        <v>150.6718910157315</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>58.95045730306805</v>
+        <v>58.95045730306839</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>79.44058926412441</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337438</v>
+        <v>69.06158396651226</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370924</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>83.33206291873063</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>53.40706886919929</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340528</v>
+        <v>12.15545075340532</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441978</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>114.778329290882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>220.1051982880079</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>164.17016333998</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.1295401511789</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834397</v>
+        <v>2.560534440834395</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219527</v>
+        <v>26.22307334219526</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026818</v>
+        <v>98.71500403026812</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977686</v>
+        <v>217.3221599977685</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782886</v>
+        <v>325.7095828782885</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719744</v>
+        <v>404.0715387719742</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341631</v>
+        <v>449.6074431341628</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141839</v>
+        <v>456.8825616141836</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681368</v>
+        <v>431.4212472681366</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600376</v>
+        <v>368.2080532600374</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976556</v>
+        <v>276.5089135976555</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690638</v>
+        <v>160.8431715690637</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051387</v>
+        <v>58.34817857051384</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475258</v>
+        <v>11.20873951475257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667517</v>
+        <v>0.2048427552667516</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772858</v>
+        <v>1.370006705772857</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312208</v>
+        <v>13.23138055312207</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770585</v>
+        <v>47.16909052770583</v>
       </c>
       <c r="J6" t="n">
         <v>129.4355896888295</v>
       </c>
       <c r="K6" t="n">
-        <v>221.226038975611</v>
+        <v>221.2260389756109</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916023</v>
+        <v>297.4657103916022</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758684</v>
+        <v>347.1284534758682</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264241</v>
+        <v>356.3159107264239</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511413</v>
+        <v>325.9594463511411</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892048</v>
+        <v>261.6111927892046</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316371</v>
+        <v>174.880154231637</v>
       </c>
       <c r="R6" t="n">
-        <v>85.0605917847394</v>
+        <v>85.06059178473936</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959671</v>
+        <v>25.44727367959669</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479192</v>
+        <v>5.522088432479189</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663542</v>
+        <v>0.09013202011663538</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.148567600611987</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180477</v>
+        <v>10.21181012180476</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749505</v>
+        <v>34.54056020749503</v>
       </c>
       <c r="J7" t="n">
-        <v>81.2037293632675</v>
+        <v>81.20372936326746</v>
       </c>
       <c r="K7" t="n">
         <v>133.442672143829</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400768</v>
+        <v>170.7606776400767</v>
       </c>
       <c r="M7" t="n">
-        <v>180.04319215775</v>
+        <v>180.0431921577499</v>
       </c>
       <c r="N7" t="n">
-        <v>175.76216746456</v>
+        <v>175.7621674645599</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846835</v>
+        <v>162.3448095846834</v>
       </c>
       <c r="P7" t="n">
         <v>138.9140305321988</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579106</v>
+        <v>96.176874265791</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297171</v>
+        <v>51.64377593297168</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157435</v>
+        <v>20.01640082157434</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705763</v>
+        <v>4.90751611170576</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156302</v>
+        <v>0.06264914185156298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>673.7140351260975</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,22 +33259,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>309.7666854143577</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33994,10 +33994,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>152.1871379112071</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,7 +34219,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>489.8124929257571</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108229</v>
+        <v>36.27625547108218</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333081</v>
+        <v>105.6197318333079</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019872</v>
+        <v>168.305123801987</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068903</v>
+        <v>219.2612099068901</v>
       </c>
       <c r="N5" t="n">
-        <v>227.469498017593</v>
+        <v>227.4694980175927</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464501</v>
+        <v>201.3230358464499</v>
       </c>
       <c r="P5" t="n">
-        <v>136.975057504768</v>
+        <v>136.9750575047678</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320615</v>
+        <v>54.20322372320604</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022162844</v>
+        <v>128.6889983625716</v>
       </c>
       <c r="K6" t="n">
-        <v>212.0568568472661</v>
+        <v>83.3846000012519</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117281</v>
+        <v>158.911330611728</v>
       </c>
       <c r="M6" t="n">
-        <v>204.99441955385</v>
+        <v>204.9944195538499</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430908</v>
+        <v>224.9741986430906</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066969</v>
+        <v>183.3632019066967</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748745</v>
+        <v>127.6367853748744</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561559</v>
+        <v>37.47960165122076</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179462</v>
+        <v>111.1731803179461</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003929</v>
+        <v>198.3507029003928</v>
       </c>
       <c r="M7" t="n">
         <v>219.6270691195905</v>
@@ -35108,13 +35108,13 @@
         <v>219.8943398437885</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987232</v>
+        <v>186.9299374987231</v>
       </c>
       <c r="P7" t="n">
         <v>136.1925897970923</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409667</v>
+        <v>10.01483101409661</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>397.6203974676415</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>411.6868389156599</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>531.5800012040792</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>171.2123056344834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>25.34951124454042</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,7 +37867,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>347.2162484813126</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2100196.084928041</v>
+        <v>2101956.615230826</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.93385014149905</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>92.72679982914684</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>114.2982964815047</v>
       </c>
       <c r="H3" t="n">
-        <v>80.54187128585292</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.84499847747612</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>121.5976716476359</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.290511414347</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>242.9456793794562</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>290.290511414347</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>290.290511414347</v>
       </c>
       <c r="G5" t="n">
-        <v>287.9615379738181</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>290.2905114143446</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2905114143446</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -986,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>29.94247971686213</v>
+        <v>70.77190705779321</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790377</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>67.50284585056397</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340505</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>247.7138547818157</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>295.767831113157</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>163.5820951301549</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>25.7329855821759</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187878</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560509</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>18.95488441967058</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>80.56978887874858</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8253826161913385</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>33.82351723687695</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.29306638367343</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542875</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188693977</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>33.66638448559959</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>33.01627976944107</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>201.5291659007891</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.4946167489004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.2042067722822</v>
       </c>
     </row>
     <row r="44">
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.5612368675366</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="C2" t="n">
-        <v>643.3309862195516</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="D2" t="n">
-        <v>401.1007355715666</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="E2" t="n">
-        <v>158.8704849235816</v>
+        <v>717.0015419180338</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>474.7712912700494</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>381.107857099194</v>
       </c>
       <c r="H2" t="n">
         <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470428</v>
+        <v>40.41888584470348</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192966</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605499</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859574</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779397</v>
+        <v>643.3443219779377</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948991</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444255</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>583.1649553404197</v>
+        <v>751.3802923604853</v>
       </c>
       <c r="C3" t="n">
-        <v>408.7119260592928</v>
+        <v>576.9272630793583</v>
       </c>
       <c r="D3" t="n">
-        <v>259.7775163980415</v>
+        <v>427.9928534181071</v>
       </c>
       <c r="E3" t="n">
-        <v>100.540061392586</v>
+        <v>427.9928534181071</v>
       </c>
       <c r="F3" t="n">
-        <v>100.540061392586</v>
+        <v>281.458295444992</v>
       </c>
       <c r="G3" t="n">
-        <v>100.540061392586</v>
+        <v>166.0054707161993</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132041</v>
+        <v>65.0894928610039</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450208</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607147</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153195</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679841</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367447</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640436</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="V3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="W3" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="X3" t="n">
-        <v>751.3802923604877</v>
+        <v>751.3802923604853</v>
       </c>
       <c r="Y3" t="n">
-        <v>751.3802923604877</v>
+        <v>751.3802923604853</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.7573967785728</v>
+        <v>738.439213422488</v>
       </c>
       <c r="C4" t="n">
-        <v>485.8212138506659</v>
+        <v>569.5030304945811</v>
       </c>
       <c r="D4" t="n">
-        <v>335.7045744383302</v>
+        <v>419.3863910822454</v>
       </c>
       <c r="E4" t="n">
-        <v>187.791480855937</v>
+        <v>271.4732974998523</v>
       </c>
       <c r="F4" t="n">
-        <v>187.791480855937</v>
+        <v>271.4732974998523</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132041</v>
+        <v>102.8664524952356</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>60.34504070228559</v>
+        <v>60.3450407022838</v>
       </c>
       <c r="L4" t="n">
-        <v>245.1780356031039</v>
+        <v>245.178035603102</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223419</v>
+        <v>450.4476363223399</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584461</v>
+        <v>656.2710011584441</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470449</v>
+        <v>830.3658965470428</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456606</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="X4" t="n">
-        <v>836.4058616088125</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.4058616088125</v>
+        <v>738.439213422488</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>321.038982039945</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="C5" t="n">
-        <v>321.038982039945</v>
+        <v>867.9393068550173</v>
       </c>
       <c r="D5" t="n">
-        <v>321.038982039945</v>
+        <v>622.5396307141525</v>
       </c>
       <c r="E5" t="n">
-        <v>321.038982039945</v>
+        <v>329.3168919117817</v>
       </c>
       <c r="F5" t="n">
-        <v>314.0934812907416</v>
+        <v>36.09415310941104</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951902</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444944</v>
+        <v>163.7002683444957</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084615</v>
+        <v>330.3223409084642</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162823</v>
+        <v>547.3909387162869</v>
       </c>
       <c r="N5" t="n">
-        <v>772.585741753699</v>
+        <v>772.5857417537051</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416844</v>
+        <v>971.8955472416919</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171405</v>
+        <v>1107.500854171413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="U5" t="n">
-        <v>907.4844596446817</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="V5" t="n">
-        <v>907.4844596446817</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="W5" t="n">
-        <v>614.2617208423134</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="X5" t="n">
-        <v>321.038982039945</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="Y5" t="n">
-        <v>321.038982039945</v>
+        <v>1161.162045657388</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>682.6276218410278</v>
+        <v>577.3349096668333</v>
       </c>
       <c r="C6" t="n">
-        <v>508.1745925599008</v>
+        <v>402.8818803857063</v>
       </c>
       <c r="D6" t="n">
-        <v>359.2401828986496</v>
+        <v>253.947470724455</v>
       </c>
       <c r="E6" t="n">
-        <v>200.002727893194</v>
+        <v>94.7100157189995</v>
       </c>
       <c r="F6" t="n">
-        <v>53.46816992007902</v>
+        <v>94.7100157189995</v>
       </c>
       <c r="G6" t="n">
-        <v>53.46816992007902</v>
+        <v>94.7100157189995</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="J6" t="n">
-        <v>150.6253492920935</v>
+        <v>25.79522430508935</v>
       </c>
       <c r="K6" t="n">
-        <v>233.1761032933329</v>
+        <v>235.7315125838857</v>
       </c>
       <c r="L6" t="n">
-        <v>390.4983205989436</v>
+        <v>393.0537298894974</v>
       </c>
       <c r="M6" t="n">
-        <v>593.4427959572549</v>
+        <v>595.9982052478099</v>
       </c>
       <c r="N6" t="n">
-        <v>816.1672526139146</v>
+        <v>818.7226619044708</v>
       </c>
       <c r="O6" t="n">
-        <v>997.6968225015443</v>
+        <v>1000.252231792102</v>
       </c>
       <c r="P6" t="n">
-        <v>1124.05724002267</v>
+        <v>1126.612649313228</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657378</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891819</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891819</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891819</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="U6" t="n">
-        <v>917.7797300727705</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="V6" t="n">
-        <v>682.6276218410278</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="W6" t="n">
-        <v>682.6276218410278</v>
+        <v>1161.162045657388</v>
       </c>
       <c r="X6" t="n">
-        <v>682.6276218410278</v>
+        <v>953.3105454518552</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.6276218410278</v>
+        <v>745.5502466869013</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873.7914857563309</v>
+        <v>623.575470825208</v>
       </c>
       <c r="C7" t="n">
-        <v>704.855302828424</v>
+        <v>454.6392878973011</v>
       </c>
       <c r="D7" t="n">
-        <v>554.7386634160882</v>
+        <v>304.5226484849654</v>
       </c>
       <c r="E7" t="n">
-        <v>406.8255698336951</v>
+        <v>304.5226484849654</v>
       </c>
       <c r="F7" t="n">
-        <v>259.9356223357847</v>
+        <v>157.632700987055</v>
       </c>
       <c r="G7" t="n">
-        <v>91.40793369149503</v>
+        <v>157.632700987055</v>
       </c>
       <c r="H7" t="n">
-        <v>91.40793369149503</v>
+        <v>157.632700987055</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314757</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314776</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279142</v>
+        <v>133.2846894279149</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993031</v>
+        <v>329.6518852993044</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276977</v>
+        <v>547.0826837276995</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730482</v>
+        <v>764.7780801730507</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967841</v>
+        <v>949.8387182967872</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195905</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899861</v>
+        <v>844.3680499687381</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899861</v>
+        <v>844.3680499687381</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.584064899861</v>
+        <v>844.3680499687381</v>
       </c>
       <c r="X7" t="n">
-        <v>1094.584064899861</v>
+        <v>844.3680499687381</v>
       </c>
       <c r="Y7" t="n">
-        <v>873.7914857563309</v>
+        <v>623.575470825208</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.899958573734</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>1146.77632891864</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>760.9880763203955</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>350.002171530788</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2397.104888874747</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2397.104888874747</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.639130613667</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1633.499798637855</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="9">
@@ -4865,49 +4865,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429764</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744481</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>989.7610553472316</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>761.7715044492143</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>540.9789253056841</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1097.964082041489</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>929.0278991135822</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>778.9112597012464</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>630.9981661188533</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.1082186209429</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>316.9121193358229</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.200288178021</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1279.612546871729</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>94.65038286230657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656159</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2126.309465880251</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>2126.309465880251</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4492432300683</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>376.4492432300683</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>209.2531439449482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>641.8461362382112</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>472.9099533103043</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>322.7933138979686</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7575,46 +7575,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797786</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855608</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199806</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.240688199806</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.823518162845</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1353.833967264828</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7788,22 +7788,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923577</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923465</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>46.25131710763777</v>
+        <v>46.25131710763608</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506838</v>
+        <v>54.74236624506784</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>128.6722568460164</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.581221505605285</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241567</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.6605885985418</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6960474398169367</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>70.88187642684009</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>75.37549921168807</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.359901516045</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.2784330767828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.33736343303694</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>0.380446579812542</v>
       </c>
     </row>
     <row r="44">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858384.0007894962</v>
+        <v>858384.0007894961</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825025</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.3234221071</v>
+        <v>55881.32342211039</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.886627626</v>
+        <v>363279.8866276232</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353597</v>
+        <v>62744.31078353579</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440414</v>
+        <v>12992.59634440492</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666313</v>
+        <v>88656.3399166624</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431043</v>
+        <v>246054.6603431036</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828188</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26444,10 +26444,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437333</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302688</v>
+        <v>65162.40123302707</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-379199.6710688837</v>
+        <v>-379199.6710688832</v>
       </c>
       <c r="C6" t="n">
-        <v>228156.8981533669</v>
+        <v>228156.898153364</v>
       </c>
       <c r="D6" t="n">
-        <v>-4913.469898684518</v>
+        <v>-4913.469898682</v>
       </c>
       <c r="E6" t="n">
-        <v>-36770.93007438591</v>
+        <v>-36458.2887454647</v>
       </c>
       <c r="F6" t="n">
-        <v>470714.51155016</v>
+        <v>471027.152879081</v>
       </c>
       <c r="G6" t="n">
-        <v>470714.5115501598</v>
+        <v>471027.152879081</v>
       </c>
       <c r="H6" t="n">
-        <v>470714.5115501602</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="I6" t="n">
-        <v>470714.5115501601</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="J6" t="n">
-        <v>407970.2007666241</v>
+        <v>408282.8420955454</v>
       </c>
       <c r="K6" t="n">
-        <v>457721.9152057556</v>
+        <v>458034.5565346763</v>
       </c>
       <c r="L6" t="n">
-        <v>382058.1716334968</v>
+        <v>382370.8129624187</v>
       </c>
       <c r="M6" t="n">
-        <v>338107.217821233</v>
+        <v>338419.8591501545</v>
       </c>
       <c r="N6" t="n">
-        <v>470714.5115501598</v>
+        <v>471027.152879081</v>
       </c>
       <c r="O6" t="n">
-        <v>470714.5115501598</v>
+        <v>471027.1528790811</v>
       </c>
       <c r="P6" t="n">
-        <v>470714.5115501601</v>
+        <v>471027.1528790813</v>
       </c>
     </row>
   </sheetData>
@@ -26712,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575563</v>
+        <v>636.9329421575585</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143446</v>
+        <v>290.290511414347</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949134</v>
+        <v>43.45684181949389</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599829</v>
+        <v>297.1319499599806</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283946</v>
+        <v>50.48256327284246</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856943</v>
+        <v>350.2943206856917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283934</v>
+        <v>50.48256327284246</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856946</v>
+        <v>350.2943206856917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283946</v>
+        <v>50.48256327284246</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856943</v>
+        <v>350.2943206856917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309.7999915219815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295024</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307566</v>
+        <v>142.1224219307572</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>320.1901041167899</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.23293593371105</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>21.76868718286552</v>
       </c>
       <c r="H3" t="n">
-        <v>19.36494679079053</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>69.86709819175645</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>104.1119837414012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666054</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>111.7373622412268</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>91.63985865791477</v>
       </c>
       <c r="F5" t="n">
+        <v>116.5855343273644</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>124.7806651004826</v>
-      </c>
       <c r="H5" t="n">
-        <v>313.2517287735719</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401378</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157315</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>58.95045730306839</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.44058926412441</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>69.06158396651226</v>
+        <v>28.23215662558114</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370924</v>
+        <v>42.22754232370909</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790349</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40706886919929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340532</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441978</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>38.5425254328236</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>115.779871659797</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>164.17016333998</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>154.0989945997614</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546831</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.111025083571364e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834395</v>
+        <v>2.560534440834404</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219526</v>
+        <v>26.22307334219535</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026812</v>
+        <v>98.71500403026846</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977685</v>
+        <v>217.3221599977692</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782885</v>
+        <v>325.7095828782896</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719742</v>
+        <v>404.0715387719756</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341628</v>
+        <v>449.6074431341644</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141836</v>
+        <v>456.8825616141852</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681366</v>
+        <v>431.421247268138</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600374</v>
+        <v>368.2080532600386</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976555</v>
+        <v>276.5089135976564</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690637</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051384</v>
+        <v>58.34817857051404</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475257</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667516</v>
+        <v>0.2048427552667523</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772857</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312207</v>
+        <v>13.23138055312211</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770583</v>
+        <v>47.16909052770599</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888295</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756109</v>
+        <v>221.2260389756116</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916022</v>
+        <v>297.4657103916032</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758682</v>
+        <v>347.1284534758693</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264239</v>
+        <v>356.3159107264251</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511411</v>
+        <v>325.9594463511422</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892046</v>
+        <v>261.6111927892055</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.880154231637</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473936</v>
+        <v>85.06059178473964</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959669</v>
+        <v>25.44727367959678</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479189</v>
+        <v>5.522088432479208</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663538</v>
+        <v>0.09013202011663568</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611987</v>
+        <v>1.148567600611991</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180476</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749503</v>
+        <v>34.54056020749515</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326746</v>
+        <v>81.20372936326773</v>
       </c>
       <c r="K7" t="n">
-        <v>133.442672143829</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400767</v>
+        <v>170.7606776400773</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577499</v>
+        <v>180.0431921577505</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645599</v>
+        <v>175.7621674645605</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846834</v>
+        <v>162.344809584684</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321988</v>
+        <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.176874265791</v>
+        <v>96.17687426579133</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297168</v>
+        <v>51.64377593297186</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157434</v>
+        <v>20.01640082157441</v>
       </c>
       <c r="T7" t="n">
-        <v>4.90751611170576</v>
+        <v>4.907516111705776</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156298</v>
+        <v>0.0626491418515632</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219196</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>89.75123316395873</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.57616651612644</v>
+        <v>41.57616651612468</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108218</v>
+        <v>36.27625547108292</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333079</v>
+        <v>105.6197318333091</v>
       </c>
       <c r="L5" t="n">
-        <v>168.305123801987</v>
+        <v>168.3051238019883</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068901</v>
+        <v>219.2612099068917</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175927</v>
+        <v>227.4694980175943</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464499</v>
+        <v>201.3230358464513</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047678</v>
+        <v>136.9750575047691</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320604</v>
+        <v>54.20322372320695</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>128.6889983625716</v>
+        <v>2.597963022163214</v>
       </c>
       <c r="K6" t="n">
-        <v>83.3846000012519</v>
+        <v>212.056856847269</v>
       </c>
       <c r="L6" t="n">
-        <v>158.911330611728</v>
+        <v>158.911330611729</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538499</v>
+        <v>204.994419553851</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430906</v>
+        <v>224.9741986430918</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066967</v>
+        <v>183.3632019066978</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748744</v>
+        <v>127.6367853748753</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.47960165122076</v>
+        <v>34.89838014561607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179461</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003928</v>
+        <v>198.3507029003934</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195905</v>
+        <v>219.6270691195911</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437885</v>
+        <v>219.8943398437891</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987231</v>
+        <v>186.9299374987236</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970923</v>
+        <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409661</v>
+        <v>10.01483101409694</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676415</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391849</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191356</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
